--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -451,211 +451,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>009415</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>中邮瑞享两年定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>32.25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>009416</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中邮瑞享两年定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>32.25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>310308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信盛利精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160311</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏蓝筹混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>260117</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城支柱产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003513</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮消费升级灵活配置混合</t>
+          <t>华夏蓝筹混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.93</t>
+          <t>35.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005281</t>
+          <t>310308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科沃土转型升级灵活配置混合</t>
+          <t>申万菱信盛利精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310308</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信盛利精选混合</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>73.56</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>005433</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>申万菱信医药先锋股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>310388</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>申万菱信消费增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310388</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信消费增长混合</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008842</t>
+          <t>000039</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合A</t>
+          <t>农银高增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008843</t>
+          <t>008842</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>同泰远见灵活配置混合C</t>
+          <t>同泰远见灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>89.70</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>72.76</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>009502</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>国寿安保创新医药股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>005412</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>金信民长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>005413</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>金信民长灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>82.37</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>5.11</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160311</t>
+          <t>003513</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏蓝筹混合(LOF)</t>
+          <t>中邮消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>56.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>72.80</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>008843</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>同泰远见灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008998</t>
+          <t>009503</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合C</t>
+          <t>国寿安保创新医药股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009502</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票A</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009503</t>
+          <t>005281</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国寿安保创新医药股票C</t>
+          <t>中科沃土转型升级灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,3094 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1117</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3521</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004083</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008441</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004084</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安鑫隆混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>32.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008442</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>九泰科新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4672,4 +4673,1538 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6207,4 +6208,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6216,7 +6217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6227,17 +6228,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6247,14 +6268,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.04</v>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6263,14 +6306,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.94</v>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6279,14 +6344,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.69</v>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6295,13 +6382,415 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6689,7 +6690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6700,17 +6701,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6720,14 +6741,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6736,14 +6779,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.04</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6752,14 +6817,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.94</v>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6768,14 +6855,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.69</v>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6784,13 +6893,391 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7160,7 +7161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7171,17 +7172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7191,14 +7212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7207,14 +7250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7223,14 +7288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.04</v>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7239,14 +7326,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.94</v>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7255,14 +7364,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.69</v>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -7271,13 +7402,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>2.08</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.04</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>21.94</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>4.69</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.33</v>
       </c>
     </row>
@@ -600,6 +617,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富消费成长股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014958</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富消费成长股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970077</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970078</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970079</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1332,476 +2697,6 @@
       </c>
       <c r="H19" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159828</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4461</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002310</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004050</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006235</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方城镇消费主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002315</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>同泰大健康主题混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>同泰大健康主题混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004051</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1876,26 +2771,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4934</t>
+          <t>0.4461</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1904,36 +2799,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004050</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新锦升灵活配置混合A</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1942,36 +2837,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011002</t>
+          <t>002310</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰大健康主题混合A</t>
+          <t>创金合信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0743</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1980,36 +2875,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>004050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>华夏新锦升灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2018,36 +2913,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2056,36 +2951,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010939</t>
+          <t>002315</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+          <t>创金合信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2094,36 +2989,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>011002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>同泰大健康主题混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2142,22 +3037,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2170,36 +3065,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005209</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴双三角股票A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>86.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2208,36 +3103,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005210</t>
+          <t>004051</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴双三角股票C</t>
+          <t>华夏新锦升灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2246,12 +3139,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004051</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏新锦升灵活配置混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2261,19 +3154,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2282,6 +3175,478 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3815,7 +5180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6905,7 +8270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7759,7 +9124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688363-华熙生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>3.89</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.04</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>21.94</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>4.69</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,314 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融融安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +918,2408 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3179</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015194</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>970077</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>970078</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970079</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信资管瑞鑫一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015193</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合D</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1964,7 +4667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2697,476 +5400,6 @@
       </c>
       <c r="H19" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159828</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证医疗ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4461</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002310</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004050</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006235</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方城镇消费主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002315</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>同泰大健康主题混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>同泰大健康主题混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004051</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3241,26 +5474,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4934</t>
+          <t>0.4461</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3269,36 +5502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004050</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新锦升灵活配置混合A</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3307,36 +5540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011002</t>
+          <t>002310</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰大健康主题混合A</t>
+          <t>创金合信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0743</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3345,36 +5578,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>004050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>华夏新锦升灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3383,36 +5616,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010938</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0423</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3421,36 +5654,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010939</t>
+          <t>002315</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+          <t>创金合信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.09</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3459,36 +5692,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>011002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>同泰大健康主题混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3507,22 +5740,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3535,36 +5768,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005209</t>
+          <t>004135</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴双三角股票A</t>
+          <t>申万菱信量化成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>86.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0114</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3573,36 +5806,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005210</t>
+          <t>004051</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴双三角股票C</t>
+          <t>华夏新锦升灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3611,12 +5842,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004051</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏新锦升灵活配置混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3626,19 +5857,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>68.97</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3647,6 +5878,478 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5180,7 +7883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8270,7 +10973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9122,288 +11825,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160311</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏蓝筹混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7640</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>310308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信盛利精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4648</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260117</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城支柱产业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009415</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001014</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融融安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>